--- a/Tasa de Xenofobia/Ecuador/ecuador_categories.xlsx
+++ b/Tasa de Xenofobia/Ecuador/ecuador_categories.xlsx
@@ -141,7 +141,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sat Jul 01 05:00:00 UTC 2023</t>
+          <t>Fri Dec 01 05:00:00 UTC 2023</t>
         </is>
       </c>
     </row>
@@ -311,6 +311,116 @@
           <t>2023-06-26 05:00:00.0</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2023-07-03 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>2023-07-10 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>2023-07-17 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>2023-07-24 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>2023-07-31 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>2023-08-07 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>2023-08-14 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>2023-08-21 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>2023-08-28 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>2023-09-04 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>2023-09-11 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>2023-09-18 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>2023-09-25 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>2023-10-02 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>2023-10-09 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>2023-10-16 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>2023-10-23 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>2023-10-30 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>2023-11-06 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>2023-11-13 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>2023-11-20 05:00:00.0</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>2023-11-27 05:00:00.0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -322,82 +432,148 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <v>82</v>
+      </c>
+      <c r="I11">
+        <v>64</v>
+      </c>
+      <c r="J11">
+        <v>93</v>
+      </c>
+      <c r="K11">
+        <v>142</v>
+      </c>
+      <c r="L11">
+        <v>164</v>
+      </c>
+      <c r="M11">
+        <v>117</v>
+      </c>
+      <c r="N11">
+        <v>108</v>
+      </c>
+      <c r="O11">
+        <v>398</v>
+      </c>
+      <c r="P11">
+        <v>344</v>
+      </c>
+      <c r="Q11">
+        <v>349</v>
+      </c>
+      <c r="R11">
+        <v>215</v>
+      </c>
+      <c r="S11">
+        <v>172</v>
+      </c>
+      <c r="T11">
+        <v>165</v>
+      </c>
+      <c r="U11">
+        <v>140</v>
+      </c>
+      <c r="V11">
+        <v>129</v>
+      </c>
+      <c r="W11">
+        <v>86</v>
+      </c>
+      <c r="X11">
+        <v>296</v>
+      </c>
+      <c r="Y11">
+        <v>433</v>
+      </c>
+      <c r="Z11">
+        <v>99</v>
+      </c>
+      <c r="AA11">
+        <v>93</v>
+      </c>
+      <c r="AB11">
+        <v>83</v>
+      </c>
+      <c r="AC11">
+        <v>88</v>
+      </c>
+      <c r="AD11">
+        <v>79</v>
+      </c>
+      <c r="AE11">
+        <v>78</v>
+      </c>
+      <c r="AF11">
+        <v>137</v>
+      </c>
+      <c r="AG11">
+        <v>109</v>
+      </c>
+      <c r="AH11">
+        <v>99</v>
+      </c>
+      <c r="AI11">
+        <v>39</v>
+      </c>
+      <c r="AJ11">
+        <v>52</v>
+      </c>
+      <c r="AK11">
+        <v>103</v>
+      </c>
+      <c r="AL11">
+        <v>751</v>
+      </c>
+      <c r="AM11">
+        <v>146</v>
+      </c>
+      <c r="AN11">
+        <v>82</v>
+      </c>
+      <c r="AO11">
+        <v>59</v>
+      </c>
+      <c r="AP11">
+        <v>115</v>
+      </c>
+      <c r="AQ11">
+        <v>84</v>
+      </c>
+      <c r="AR11">
+        <v>103</v>
+      </c>
+      <c r="AS11">
+        <v>247</v>
+      </c>
+      <c r="AT11">
+        <v>328</v>
+      </c>
+      <c r="AU11">
+        <v>98</v>
+      </c>
+      <c r="AV11">
         <v>110</v>
       </c>
-      <c r="G11">
-        <v>88</v>
-      </c>
-      <c r="H11">
-        <v>102</v>
-      </c>
-      <c r="I11">
-        <v>77</v>
-      </c>
-      <c r="J11">
-        <v>102</v>
-      </c>
-      <c r="K11">
-        <v>162</v>
-      </c>
-      <c r="L11">
-        <v>179</v>
-      </c>
-      <c r="M11">
-        <v>132</v>
-      </c>
-      <c r="N11">
-        <v>129</v>
-      </c>
-      <c r="O11">
-        <v>421</v>
-      </c>
-      <c r="P11">
-        <v>358</v>
-      </c>
-      <c r="Q11">
-        <v>356</v>
-      </c>
-      <c r="R11">
-        <v>223</v>
-      </c>
-      <c r="S11">
-        <v>192</v>
-      </c>
-      <c r="T11">
-        <v>510</v>
-      </c>
-      <c r="U11">
-        <v>158</v>
-      </c>
-      <c r="V11">
-        <v>164</v>
-      </c>
-      <c r="W11">
-        <v>87</v>
-      </c>
-      <c r="X11">
-        <v>311</v>
-      </c>
-      <c r="Y11">
-        <v>451</v>
-      </c>
-      <c r="Z11">
-        <v>116</v>
-      </c>
-      <c r="AA11">
-        <v>106</v>
-      </c>
-      <c r="AB11">
-        <v>62</v>
+      <c r="AW11">
+        <v>386</v>
+      </c>
+      <c r="AX11">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -407,85 +583,151 @@
         </is>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>345</v>
+        <v>262</v>
       </c>
       <c r="D12">
-        <v>633</v>
+        <v>339</v>
       </c>
       <c r="E12">
-        <v>585</v>
+        <v>424</v>
       </c>
       <c r="F12">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="G12">
-        <v>476</v>
+        <v>356</v>
       </c>
       <c r="H12">
-        <v>860</v>
+        <v>599</v>
       </c>
       <c r="I12">
-        <v>2873</v>
+        <v>1521</v>
       </c>
       <c r="J12">
-        <v>748</v>
+        <v>450</v>
       </c>
       <c r="K12">
-        <v>452</v>
+        <v>286</v>
       </c>
       <c r="L12">
-        <v>836</v>
+        <v>441</v>
       </c>
       <c r="M12">
-        <v>974</v>
+        <v>701</v>
       </c>
       <c r="N12">
-        <v>794</v>
+        <v>706</v>
       </c>
       <c r="O12">
-        <v>1769</v>
+        <v>1533</v>
       </c>
       <c r="P12">
-        <v>1619</v>
+        <v>1359</v>
       </c>
       <c r="Q12">
-        <v>714</v>
+        <v>554</v>
       </c>
       <c r="R12">
-        <v>1041</v>
+        <v>852</v>
       </c>
       <c r="S12">
-        <v>855</v>
+        <v>715</v>
       </c>
       <c r="T12">
-        <v>748</v>
+        <v>541</v>
       </c>
       <c r="U12">
-        <v>527</v>
+        <v>316</v>
       </c>
       <c r="V12">
+        <v>287</v>
+      </c>
+      <c r="W12">
+        <v>211</v>
+      </c>
+      <c r="X12">
+        <v>568</v>
+      </c>
+      <c r="Y12">
+        <v>277</v>
+      </c>
+      <c r="Z12">
+        <v>163</v>
+      </c>
+      <c r="AA12">
+        <v>293</v>
+      </c>
+      <c r="AB12">
+        <v>289</v>
+      </c>
+      <c r="AC12">
+        <v>180</v>
+      </c>
+      <c r="AD12">
+        <v>184</v>
+      </c>
+      <c r="AE12">
         <v>742</v>
       </c>
-      <c r="W12">
-        <v>481</v>
-      </c>
-      <c r="X12">
-        <v>821</v>
-      </c>
-      <c r="Y12">
-        <v>338</v>
-      </c>
-      <c r="Z12">
-        <v>177</v>
-      </c>
-      <c r="AA12">
-        <v>303</v>
-      </c>
-      <c r="AB12">
-        <v>265</v>
+      <c r="AF12">
+        <v>876</v>
+      </c>
+      <c r="AG12">
+        <v>339</v>
+      </c>
+      <c r="AH12">
+        <v>537</v>
+      </c>
+      <c r="AI12">
+        <v>483</v>
+      </c>
+      <c r="AJ12">
+        <v>183</v>
+      </c>
+      <c r="AK12">
+        <v>549</v>
+      </c>
+      <c r="AL12">
+        <v>1396</v>
+      </c>
+      <c r="AM12">
+        <v>880</v>
+      </c>
+      <c r="AN12">
+        <v>516</v>
+      </c>
+      <c r="AO12">
+        <v>440</v>
+      </c>
+      <c r="AP12">
+        <v>575</v>
+      </c>
+      <c r="AQ12">
+        <v>288</v>
+      </c>
+      <c r="AR12">
+        <v>354</v>
+      </c>
+      <c r="AS12">
+        <v>785</v>
+      </c>
+      <c r="AT12">
+        <v>2186</v>
+      </c>
+      <c r="AU12">
+        <v>1120</v>
+      </c>
+      <c r="AV12">
+        <v>1406</v>
+      </c>
+      <c r="AW12">
+        <v>1082</v>
+      </c>
+      <c r="AX12">
+        <v>217</v>
       </c>
     </row>
     <row r="13"/>

--- a/Tasa de Xenofobia/Ecuador/ecuador_categories.xlsx
+++ b/Tasa de Xenofobia/Ecuador/ecuador_categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10804"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\Tasa de Xenofobia\Ecuador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josealonsoordinolaaucca/Documents/Documentos Barometro Xenofobia/BX-Hub/Tasa de Xenofobia/Ecuador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAE891F-490D-4801-838F-B562B54EFB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79666C9E-1104-CA48-B85B-529EB1F8C19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="17280" windowHeight="9040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -272,6 +272,45 @@
   </si>
   <si>
     <t>2024-01-01 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-04-01 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-04-08 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-04-15 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-04-22 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-04-29 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-05-06 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-05-13 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-05-20 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-05-27 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-06-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-06-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-06-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-06-24 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -613,15 +652,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO12"/>
+  <dimension ref="A1:CB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BD7" sqref="BD7"/>
+    <sheetView tabSelected="1" topLeftCell="BL2" workbookViewId="0">
+      <selection activeCell="BR7" sqref="BR7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -637,7 +676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -645,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -653,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -661,7 +700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -669,7 +708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -677,7 +716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -685,7 +724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -887,8 +926,47 @@
       <c r="BO10" t="s">
         <v>71</v>
       </c>
+      <c r="BP10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1090,8 +1168,47 @@
       <c r="BO11">
         <v>103</v>
       </c>
+      <c r="BP11">
+        <v>85</v>
+      </c>
+      <c r="BQ11">
+        <v>71</v>
+      </c>
+      <c r="BR11">
+        <v>392</v>
+      </c>
+      <c r="BS11">
+        <v>163</v>
+      </c>
+      <c r="BT11">
+        <v>74</v>
+      </c>
+      <c r="BU11">
+        <v>53</v>
+      </c>
+      <c r="BV11">
+        <v>56</v>
+      </c>
+      <c r="BW11">
+        <v>115</v>
+      </c>
+      <c r="BX11">
+        <v>89</v>
+      </c>
+      <c r="BY11">
+        <v>63</v>
+      </c>
+      <c r="BZ11">
+        <v>53</v>
+      </c>
+      <c r="CA11">
+        <v>174</v>
+      </c>
+      <c r="CB11">
+        <v>198</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -1292,6 +1409,45 @@
       </c>
       <c r="BO12">
         <v>337</v>
+      </c>
+      <c r="BP12">
+        <v>968</v>
+      </c>
+      <c r="BQ12">
+        <v>658</v>
+      </c>
+      <c r="BR12">
+        <v>1210</v>
+      </c>
+      <c r="BS12">
+        <v>249</v>
+      </c>
+      <c r="BT12">
+        <v>327</v>
+      </c>
+      <c r="BU12">
+        <v>278</v>
+      </c>
+      <c r="BV12">
+        <v>248</v>
+      </c>
+      <c r="BW12">
+        <v>505</v>
+      </c>
+      <c r="BX12">
+        <v>262</v>
+      </c>
+      <c r="BY12">
+        <v>634</v>
+      </c>
+      <c r="BZ12">
+        <v>842</v>
+      </c>
+      <c r="CA12">
+        <v>1165</v>
+      </c>
+      <c r="CB12">
+        <v>894</v>
       </c>
     </row>
   </sheetData>
